--- a/gdm.xlsx
+++ b/gdm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb384996\OneDrive - WBG\WorldBank\DECDG\PIP\aux_data\aux_gdm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/acastanedaa_worldbank_org/Documents/WorldBank/DECDG/PIP/aux_data/aux_gdm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A42CD29-5460-4CA4-9922-E2BF4ADC58D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6A42CD29-5460-4CA4-9922-E2BF4ADC58D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DC5451E-15EE-4247-A846-E546022A1B04}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
